--- a/SourceCode/2024/July 2024/Task 22/input.xlsx
+++ b/SourceCode/2024/July 2024/Task 22/input.xlsx
@@ -16,51 +16,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
-  <si>
-    <t>mounika</t>
-  </si>
-  <si>
-    <t>MOUNIKA</t>
-  </si>
-  <si>
-    <t>Sucessfully completed</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ramadevi</t>
   </si>
   <si>
-    <t>RAMADEVI</t>
-  </si>
-  <si>
     <t>rithu</t>
   </si>
   <si>
-    <t>RITHU</t>
-  </si>
-  <si>
     <t>sai rithwika</t>
   </si>
   <si>
-    <t>SAI RITHWIKA</t>
-  </si>
-  <si>
     <t>radharapu</t>
   </si>
   <si>
-    <t>RADHARAPU</t>
-  </si>
-  <si>
     <t>kumar</t>
   </si>
   <si>
-    <t>KUMAR</t>
-  </si>
-  <si>
     <t>kiran</t>
   </si>
   <si>
-    <t>KIRAN</t>
+    <t>Inner</t>
+  </si>
+  <si>
+    <t>Upper</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -402,7 +384,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,79 +395,43 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/SourceCode/2024/July 2024/Task 22/input.xlsx
+++ b/SourceCode/2024/July 2024/Task 22/input.xlsx
@@ -16,33 +16,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>ramadevi</t>
   </si>
   <si>
+    <t>RAMADEVI</t>
+  </si>
+  <si>
+    <t>Sucessfully completed</t>
+  </si>
+  <si>
     <t>rithu</t>
   </si>
   <si>
+    <t>RITHU</t>
+  </si>
+  <si>
     <t>sai rithwika</t>
   </si>
   <si>
+    <t>SAI RITHWIKA</t>
+  </si>
+  <si>
     <t>radharapu</t>
   </si>
   <si>
+    <t>RADHARAPU</t>
+  </si>
+  <si>
     <t>kumar</t>
   </si>
   <si>
+    <t>KUMAR</t>
+  </si>
+  <si>
     <t>kiran</t>
   </si>
   <si>
-    <t>Inner</t>
-  </si>
-  <si>
-    <t>Upper</t>
-  </si>
-  <si>
-    <t>Status</t>
+    <t>KIRAN</t>
   </si>
 </sst>
 </file>
@@ -381,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,43 +407,68 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
